--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC24_Verify_PlaceOrder_LoggedIn.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC24_Verify_PlaceOrder_LoggedIn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014C9194-AA37-44AF-A482-DA4C0ECC013F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABDB09A-B0EF-492F-9016-80809890B60E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="111">
   <si>
     <t>TestCase</t>
   </si>
@@ -338,15 +338,6 @@
     <t>AddCardLogin</t>
   </si>
   <si>
-    <t>Uname1</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>LoginButton1</t>
-  </si>
-  <si>
     <t>$BaseURL</t>
   </si>
   <si>
@@ -357,6 +348,12 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
+  </si>
+  <si>
+    <t>LoginURL</t>
   </si>
 </sst>
 </file>
@@ -786,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -840,85 +837,85 @@
         <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>106</v>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>107</v>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -927,11 +924,11 @@
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -941,10 +938,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -954,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -966,65 +963,65 @@
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
@@ -1033,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1046,33 +1043,33 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
@@ -1081,54 +1078,58 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
-        <v>9</v>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
-        <v>12</v>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="6" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1136,31 +1137,25 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="6" t="s">
-        <v>70</v>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
@@ -1168,13 +1163,13 @@
         <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1183,13 +1178,13 @@
         <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1198,13 +1193,13 @@
         <v>70</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1213,28 +1208,34 @@
         <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="6" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1251,31 +1252,25 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
-      <c r="B38" s="6" t="s">
-        <v>9</v>
+      <c r="B38" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
@@ -1283,13 +1278,13 @@
         <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1298,62 +1293,62 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3"/>
-      <c r="B42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3"/>
-      <c r="B43" s="6" t="s">
-        <v>9</v>
+      <c r="B43" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>96</v>
+      <c r="B44" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>97</v>
@@ -1361,16 +1356,18 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
-      <c r="B45" s="5" t="s">
-        <v>12</v>
+      <c r="B45" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
@@ -1378,12 +1375,25 @@
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1419,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1427,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1435,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1872,6 +1882,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2068,12 +2084,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2084,6 +2094,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2102,15 +2121,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
